--- a/参考ファイル/テーブル設計.xlsx
+++ b/参考ファイル/テーブル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makku\Documents\GitHub\miyabi381.github.io\参考ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC8D016-3071-4E1E-8A74-3D88809E4B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911CA822-A2E6-4A4A-AC06-F9584032B82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="1260" windowWidth="16590" windowHeight="11835" xr2:uid="{DCFE23A8-FC75-4891-9414-5B7364BA1F6B}"/>
+    <workbookView xWindow="3765" yWindow="2880" windowWidth="22665" windowHeight="11835" xr2:uid="{DCFE23A8-FC75-4891-9414-5B7364BA1F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARK_設定" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>■目次</t>
     <rPh sb="1" eb="3">
@@ -61,59 +61,259 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-1,Death Recovery Mod (v1.12.1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-2,Extra Large Storage Box</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-3,Upgrade Station v1.8i</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-4,Swim Clear Scuba Mask</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-5,Super Spyglass (Open Source)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-6,Egg N Poop Collector / Incubator</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-7,Breedable Creatures Bundle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-8,Auto Run - Func+</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-9,Dino Aid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-10,Meat Spoiler</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-11,HG Stacking Mod 10000-90 V315</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-12,Creature Finder Deluxe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-13,EZTame</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3-14,All Dinos Allow Guns</t>
+    <t>Death Recovery Mod (v1.12.1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extra Large Storage Box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Upgrade Station v1.8i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swim Clear Scuba Mask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Super Spyglass (Open Source)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Egg N Poop Collector / Incubator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Breedable Creatures Bundle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auto Run - Func+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dino Aid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meat Spoiler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HG Stacking Mod 10000-90 V315</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creature Finder Deluxe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EZTame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All Dinos Allow Guns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2,</t>
+  </si>
+  <si>
+    <t>3-3,</t>
+  </si>
+  <si>
+    <t>3-4,</t>
+  </si>
+  <si>
+    <t>3-5,</t>
+  </si>
+  <si>
+    <t>3-6,</t>
+  </si>
+  <si>
+    <t>3-7,</t>
+  </si>
+  <si>
+    <t>3-8,</t>
+  </si>
+  <si>
+    <t>3-9,</t>
+  </si>
+  <si>
+    <t>3-10,</t>
+  </si>
+  <si>
+    <t>3-11,</t>
+  </si>
+  <si>
+    <t>3-12,</t>
+  </si>
+  <si>
+    <t>3-13,</t>
+  </si>
+  <si>
+    <t>3-14,</t>
+  </si>
+  <si>
+    <t>ゲームモード：PvE</t>
+  </si>
+  <si>
+    <t>放置切断時間：1時間</t>
+  </si>
+  <si>
+    <t>野生恐竜リセット時間：サーバー再起動後７日</t>
+  </si>
+  <si>
+    <t>恐竜最大レベル：150</t>
+  </si>
+  <si>
+    <t>テイム速度：3</t>
+  </si>
+  <si>
+    <t>野生恐竜の気絶値：0.7</t>
+  </si>
+  <si>
+    <t>飛行生物の移動速度レベルアップ：ON</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;br&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値：5</t>
+  </si>
+  <si>
+    <t>資源採取量：5</t>
+  </si>
+  <si>
+    <t>資源復活速度：2</t>
+  </si>
+  <si>
+    <t>プレイヤー被ダメージ：0.5</t>
+  </si>
+  <si>
+    <t>プレイヤースタミナ消費速度：0.5</t>
+  </si>
+  <si>
+    <t>死亡時の病気リセット：ON</t>
+  </si>
+  <si>
+    <t>マインドワイプトニック再使用時間：無し</t>
+  </si>
+  <si>
+    <t>刷り込みステータスバフ：1.5</t>
+  </si>
+  <si>
+    <t>恐竜スタミナ消費速度：0.5</t>
+  </si>
+  <si>
+    <t>恐竜体力回復速度：5</t>
+  </si>
+  <si>
+    <t>生物の出現数：0.8</t>
+  </si>
+  <si>
+    <t>ダメージによる資源採取量：3</t>
+  </si>
+  <si>
+    <t>アイテム消滅時間：10</t>
+  </si>
+  <si>
+    <t>アイテム腐敗時間：10</t>
+  </si>
+  <si>
+    <t>作物成長速度：10</t>
+  </si>
+  <si>
+    <t>作物腐敗：無し</t>
+  </si>
+  <si>
+    <t>夜の長さ：0.5</t>
+  </si>
+  <si>
+    <t>建造物修理時間間隔：無し</t>
+  </si>
+  <si>
+    <t>接続されていないパイプ破壊:2日</t>
+  </si>
+  <si>
+    <t>接地後の建築物改修時間：無し</t>
+  </si>
+  <si>
+    <t>発電機等燃料消費間隔：4</t>
+  </si>
+  <si>
+    <t>プレイヤー状態異常回復速度：2</t>
+  </si>
+  <si>
+    <t>酸素量による水泳速度：2</t>
+  </si>
+  <si>
+    <t>プレイヤーと資源間の復活可能距離：0.5</t>
+  </si>
+  <si>
+    <t>髭の成長速度：10</t>
+  </si>
+  <si>
+    <t>交配間隔：0.01</t>
+  </si>
+  <si>
+    <t>孵化速度：30</t>
+  </si>
+  <si>
+    <t>赤ちゃんの成長速度：50</t>
+  </si>
+  <si>
+    <t>世話間隔：0.25</t>
+  </si>
+  <si>
+    <t>赤ちゃんの餌消費間隔：0.5</t>
+  </si>
+  <si>
+    <t>刷り込み値：2</t>
+  </si>
+  <si>
+    <t>恐竜の資源に対するダメージ：3</t>
+  </si>
+  <si>
+    <t>産卵間隔：0.5</t>
+  </si>
+  <si>
+    <t>レイド恐竜への餌やり：ON</t>
+  </si>
+  <si>
+    <t>レイド恐竜餌消費速度：0.5</t>
+  </si>
+  <si>
+    <t>全生物のC4爆弾接着：ON</t>
+  </si>
+  <si>
+    <t>&lt;h4 class="nospace mokuji" id="</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/h4&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div class="main"&gt;&lt;/div&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -164,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,107 +681,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A7712C-A862-4B10-8C60-94D3C85978DB}">
-  <dimension ref="B3:D20"/>
+  <dimension ref="B3:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
-    <col min="2" max="10" width="4.625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="4.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="4.625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="L7" s="1" t="str">
+        <f>$H$4&amp;E7&amp;$I$4&amp;E7&amp;$J$4&amp;$L$4</f>
+        <v>&lt;h4 class="nospace mokuji" id="Death Recovery Mod (v1.12.1)"&gt;Death Recovery Mod (v1.12.1)&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="L8" s="1" t="str">
+        <f t="shared" ref="L8:L20" si="0">$H$4&amp;E8&amp;$I$4&amp;E8&amp;$J$4&amp;$L$4</f>
+        <v>&lt;h4 class="nospace mokuji" id="Extra Large Storage Box"&gt;Extra Large Storage Box&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="Upgrade Station v1.8i"&gt;Upgrade Station v1.8i&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="Swim Clear Scuba Mask"&gt;Swim Clear Scuba Mask&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="Super Spyglass (Open Source)"&gt;Super Spyglass (Open Source)&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="Egg N Poop Collector / Incubator"&gt;Egg N Poop Collector / Incubator&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="Breedable Creatures Bundle"&gt;Breedable Creatures Bundle&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="Auto Run - Func+"&gt;Auto Run - Func+&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="Dino Aid"&gt;Dino Aid&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="Meat Spoiler"&gt;Meat Spoiler&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="HG Stacking Mod 10000-90 V315"&gt;HG Stacking Mod 10000-90 V315&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="Creature Finder Deluxe"&gt;Creature Finder Deluxe&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="EZTame"&gt;EZTame&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;h4 class="nospace mokuji" id="All Dinos Allow Guns"&gt;All Dinos Allow Guns&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f>D27&amp;$F$25</f>
+        <v>ゲームモード：PvE&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" ref="L28:L72" si="1">D28&amp;$F$25</f>
+        <v>放置切断時間：1時間&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>野生恐竜リセット時間：サーバー再起動後７日&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>恐竜最大レベル：150&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>テイム速度：3&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>野生恐竜の気絶値：0.7&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>飛行生物の移動速度レベルアップ：ON&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>経験値：5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>資源採取量：5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>資源復活速度：2&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>プレイヤー被ダメージ：0.5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>プレイヤースタミナ消費速度：0.5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>死亡時の病気リセット：ON&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>マインドワイプトニック再使用時間：無し&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>刷り込みステータスバフ：1.5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>恐竜スタミナ消費速度：0.5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>恐竜体力回復速度：5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>生物の出現数：0.8&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ダメージによる資源採取量：3&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>アイテム消滅時間：10&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>アイテム腐敗時間：10&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>作物成長速度：10&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>作物腐敗：無し&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>夜の長さ：0.5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>建造物修理時間間隔：無し&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>接続されていないパイプ破壊:2日&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>接地後の建築物改修時間：無し&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>発電機等燃料消費間隔：4&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>プレイヤー状態異常回復速度：2&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>酸素量による水泳速度：2&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>プレイヤーと資源間の復活可能距離：0.5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>髭の成長速度：10&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>交配間隔：0.01&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>孵化速度：30&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>赤ちゃんの成長速度：50&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>世話間隔：0.25&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>赤ちゃんの餌消費間隔：0.5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>刷り込み値：2&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>恐竜の資源に対するダメージ：3&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>産卵間隔：0.5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>レイド恐竜への餌やり：ON&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>レイド恐竜餌消費速度：0.5&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>全生物のC4爆弾接着：ON&lt;br&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/参考ファイル/テーブル設計.xlsx
+++ b/参考ファイル/テーブル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makku\Documents\GitHub\miyabi381.github.io\参考ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911CA822-A2E6-4A4A-AC06-F9584032B82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBCAE47-5A21-4775-AD94-17C0AE8114AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3765" yWindow="2880" windowWidth="22665" windowHeight="11835" xr2:uid="{DCFE23A8-FC75-4891-9414-5B7364BA1F6B}"/>
   </bookViews>
@@ -360,11 +360,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A7712C-A862-4B10-8C60-94D3C85978DB}">
-  <dimension ref="B3:L72"/>
+  <dimension ref="B3:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -693,15 +696,20 @@
     <col min="2" max="4" width="4.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.125" style="1" customWidth="1"/>
     <col min="6" max="10" width="4.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="Q3" s="2">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -718,17 +726,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
@@ -740,7 +748,7 @@
         <v>&lt;h4 class="nospace mokuji" id="Death Recovery Mod (v1.12.1)"&gt;Death Recovery Mod (v1.12.1)&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
@@ -752,7 +760,7 @@
         <v>&lt;h4 class="nospace mokuji" id="Extra Large Storage Box"&gt;Extra Large Storage Box&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
@@ -764,7 +772,7 @@
         <v>&lt;h4 class="nospace mokuji" id="Upgrade Station v1.8i"&gt;Upgrade Station v1.8i&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
@@ -776,7 +784,7 @@
         <v>&lt;h4 class="nospace mokuji" id="Swim Clear Scuba Mask"&gt;Swim Clear Scuba Mask&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
@@ -788,7 +796,7 @@
         <v>&lt;h4 class="nospace mokuji" id="Super Spyglass (Open Source)"&gt;Super Spyglass (Open Source)&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
@@ -800,7 +808,7 @@
         <v>&lt;h4 class="nospace mokuji" id="Egg N Poop Collector / Incubator"&gt;Egg N Poop Collector / Incubator&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
@@ -812,7 +820,7 @@
         <v>&lt;h4 class="nospace mokuji" id="Breedable Creatures Bundle"&gt;Breedable Creatures Bundle&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
@@ -824,7 +832,7 @@
         <v>&lt;h4 class="nospace mokuji" id="Auto Run - Func+"&gt;Auto Run - Func+&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
@@ -836,7 +844,7 @@
         <v>&lt;h4 class="nospace mokuji" id="Dino Aid"&gt;Dino Aid&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
         <v>27</v>
       </c>

--- a/参考ファイル/テーブル設計.xlsx
+++ b/参考ファイル/テーブル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makku\Documents\GitHub\miyabi381.github.io\参考ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBCAE47-5A21-4775-AD94-17C0AE8114AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD33CED-C636-4CDB-9927-E991EED7A397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2880" windowWidth="22665" windowHeight="11835" xr2:uid="{DCFE23A8-FC75-4891-9414-5B7364BA1F6B}"/>
+    <workbookView xWindow="29460" yWindow="-5160" windowWidth="14940" windowHeight="12720" xr2:uid="{DCFE23A8-FC75-4891-9414-5B7364BA1F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARK_設定" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>■目次</t>
     <rPh sb="1" eb="3">
@@ -314,6 +314,437 @@
   </si>
   <si>
     <t>&lt;div class="main"&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"linkcard"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詳細はこちら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SteamWorkshop::</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"linkhead"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"linkimg"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">img </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>src=""&gt;</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -321,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +767,43 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +836,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A7712C-A862-4B10-8C60-94D3C85978DB}">
-  <dimension ref="B3:Q72"/>
+  <dimension ref="B3:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -725,6 +1196,9 @@
       <c r="L4" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
@@ -744,8 +1218,8 @@
         <v>4</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f>$H$4&amp;E7&amp;$I$4&amp;E7&amp;$J$4&amp;$L$4</f>
-        <v>&lt;h4 class="nospace mokuji" id="Death Recovery Mod (v1.12.1)"&gt;Death Recovery Mod (v1.12.1)&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <f>$O$4&amp;E7</f>
+        <v>SteamWorkshop::Death Recovery Mod (v1.12.1)</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
@@ -756,8 +1230,8 @@
         <v>5</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L20" si="0">$H$4&amp;E8&amp;$I$4&amp;E8&amp;$J$4&amp;$L$4</f>
-        <v>&lt;h4 class="nospace mokuji" id="Extra Large Storage Box"&gt;Extra Large Storage Box&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <f t="shared" ref="L8:L20" si="0">$O$4&amp;E8</f>
+        <v>SteamWorkshop::Extra Large Storage Box</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
@@ -769,7 +1243,7 @@
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="Upgrade Station v1.8i"&gt;Upgrade Station v1.8i&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::Upgrade Station v1.8i</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
@@ -781,7 +1255,7 @@
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="Swim Clear Scuba Mask"&gt;Swim Clear Scuba Mask&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::Swim Clear Scuba Mask</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
@@ -793,7 +1267,7 @@
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="Super Spyglass (Open Source)"&gt;Super Spyglass (Open Source)&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::Super Spyglass (Open Source)</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
@@ -805,7 +1279,7 @@
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="Egg N Poop Collector / Incubator"&gt;Egg N Poop Collector / Incubator&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::Egg N Poop Collector / Incubator</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
@@ -817,7 +1291,7 @@
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="Breedable Creatures Bundle"&gt;Breedable Creatures Bundle&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::Breedable Creatures Bundle</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
@@ -829,7 +1303,7 @@
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="Auto Run - Func+"&gt;Auto Run - Func+&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::Auto Run - Func+</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
@@ -841,7 +1315,7 @@
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="Dino Aid"&gt;Dino Aid&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::Dino Aid</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
@@ -853,7 +1327,7 @@
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="Meat Spoiler"&gt;Meat Spoiler&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::Meat Spoiler</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.4">
@@ -864,8 +1338,8 @@
         <v>14</v>
       </c>
       <c r="L17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="HG Stacking Mod 10000-90 V315"&gt;HG Stacking Mod 10000-90 V315&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <f>$O$4&amp;E17</f>
+        <v>SteamWorkshop::HG Stacking Mod 10000-90 V315</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.4">
@@ -877,7 +1351,7 @@
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="Creature Finder Deluxe"&gt;Creature Finder Deluxe&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::Creature Finder Deluxe</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.4">
@@ -889,7 +1363,7 @@
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="EZTame"&gt;EZTame&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::EZTame</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.4">
@@ -901,7 +1375,7 @@
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;h4 class="nospace mokuji" id="All Dinos Allow Guns"&gt;All Dinos Allow Guns&lt;/h4&gt;&lt;div class="main"&gt;&lt;/div&gt;</v>
+        <v>SteamWorkshop::All Dinos Allow Guns</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.4">
@@ -1230,7 +1704,7 @@
         <v>赤ちゃんの成長速度：50&lt;br&gt;</v>
       </c>
     </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D65" s="1" t="s">
         <v>70</v>
       </c>
@@ -1239,7 +1713,7 @@
         <v>世話間隔：0.25&lt;br&gt;</v>
       </c>
     </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D66" s="1" t="s">
         <v>71</v>
       </c>
@@ -1248,7 +1722,7 @@
         <v>赤ちゃんの餌消費間隔：0.5&lt;br&gt;</v>
       </c>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D67" s="1" t="s">
         <v>72</v>
       </c>
@@ -1257,7 +1731,7 @@
         <v>刷り込み値：2&lt;br&gt;</v>
       </c>
     </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D68" s="1" t="s">
         <v>73</v>
       </c>
@@ -1266,7 +1740,7 @@
         <v>恐竜の資源に対するダメージ：3&lt;br&gt;</v>
       </c>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D69" s="1" t="s">
         <v>74</v>
       </c>
@@ -1275,7 +1749,7 @@
         <v>産卵間隔：0.5&lt;br&gt;</v>
       </c>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D70" s="1" t="s">
         <v>75</v>
       </c>
@@ -1284,7 +1758,7 @@
         <v>レイド恐竜への餌やり：ON&lt;br&gt;</v>
       </c>
     </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D71" s="1" t="s">
         <v>76</v>
       </c>
@@ -1293,7 +1767,7 @@
         <v>レイド恐竜餌消費速度：0.5&lt;br&gt;</v>
       </c>
     </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D72" s="1" t="s">
         <v>77</v>
       </c>
@@ -1301,6 +1775,52 @@
         <f t="shared" si="1"/>
         <v>全生物のC4爆弾接着：ON&lt;br&gt;</v>
       </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B74" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B75" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B77" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B78" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B79" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B80" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B81" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B82" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D85" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
